--- a/client/public/user-template.xlsx
+++ b/client/public/user-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7050"/>
+    <workbookView windowWidth="20400" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Full Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Test Teacher One</t>
   </si>
   <si>
-    <t>teacher11</t>
-  </si>
-  <si>
     <t>teacher@123</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>Belete Chebud</t>
-  </si>
-  <si>
-    <t>bchebud</t>
   </si>
   <si>
     <t>Bchebud@123</t>
@@ -704,7 +698,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1232,7 +1226,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1260,28 +1254,28 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/client/public/user-template.xlsx
+++ b/client/public/user-template.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7770"/>
+    <workbookView windowWidth="20490" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Full Name</t>
   </si>
@@ -41,6 +28,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>School Level</t>
+  </si>
+  <si>
     <t>Test Teacher One</t>
   </si>
   <si>
@@ -50,21 +40,27 @@
     <t>teacher</t>
   </si>
   <si>
+    <t>kg</t>
+  </si>
+  <si>
     <t>Belete Chebud</t>
   </si>
   <si>
     <t>Bchebud@123</t>
   </si>
+  <si>
+    <t>primary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,6 +90,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,9 +132,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,103 +222,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,37 +232,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,31 +334,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,109 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +465,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,17 +489,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,164 +523,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -684,63 +680,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -935,7 +931,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -944,7 +940,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1223,20 +1219,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
-    <col min="2" max="3" width="11.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="18.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="25.14" customWidth="1"/>
+    <col min="2" max="3" width="11.4266666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.2866666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,33 +1245,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
